--- a/StructureDefinition-onc-relational-care-logical.xlsx
+++ b/StructureDefinition-onc-relational-care-logical.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T23:43:46+00:00</t>
+    <t>2026-01-02T23:54:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-relational-care-logical.xlsx
+++ b/StructureDefinition-onc-relational-care-logical.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T23:54:54+00:00</t>
+    <t>2026-01-03T00:14:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-relational-care-logical.xlsx
+++ b/StructureDefinition-onc-relational-care-logical.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-03T00:14:22+00:00</t>
+    <t>2026-01-03T00:34:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-relational-care-logical.xlsx
+++ b/StructureDefinition-onc-relational-care-logical.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-03T00:34:03+00:00</t>
+    <t>2026-01-03T01:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-relational-care-logical.xlsx
+++ b/StructureDefinition-onc-relational-care-logical.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-03T01:26:42+00:00</t>
+    <t>2026-01-03T01:44:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
